--- a/data_year/zb/财政/各项税收.xlsx
+++ b/data_year/zb/财政/各项税收.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,582 +473,354 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>659.6373</v>
+        <v>4837.27</v>
       </c>
       <c r="C2" t="n">
-        <v>999.63</v>
+        <v>12843.54</v>
       </c>
       <c r="D2" t="n">
-        <v>750.48</v>
+        <v>2027.83</v>
       </c>
       <c r="E2" t="n">
-        <v>12581.51</v>
+        <v>73210.78999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>4553.17</v>
+        <v>21093.48</v>
       </c>
       <c r="G2" t="n">
-        <v>858.29</v>
+        <v>6071.55</v>
       </c>
       <c r="H2" t="n">
-        <v>1868.78</v>
+        <v>11157.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>995.2563</v>
+        <v>6054.11</v>
       </c>
       <c r="C3" t="n">
-        <v>2630.87</v>
+        <v>16769.64</v>
       </c>
       <c r="D3" t="n">
-        <v>840.52</v>
+        <v>2559.12</v>
       </c>
       <c r="E3" t="n">
-        <v>15301.38</v>
+        <v>89738.39</v>
       </c>
       <c r="F3" t="n">
-        <v>5357.13</v>
+        <v>24266.63</v>
       </c>
       <c r="G3" t="n">
-        <v>929.99</v>
+        <v>6936.21</v>
       </c>
       <c r="H3" t="n">
-        <v>2064.09</v>
+        <v>13679</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1211.7805</v>
+        <v>5820.28</v>
       </c>
       <c r="C4" t="n">
-        <v>3082.79</v>
+        <v>19654.53</v>
       </c>
       <c r="D4" t="n">
-        <v>704.27</v>
+        <v>2783.93</v>
       </c>
       <c r="E4" t="n">
-        <v>17636.45</v>
+        <v>100614.28</v>
       </c>
       <c r="F4" t="n">
-        <v>6178.39</v>
+        <v>26415.51</v>
       </c>
       <c r="G4" t="n">
-        <v>1046.32</v>
+        <v>7875.58</v>
       </c>
       <c r="H4" t="n">
-        <v>2450.33</v>
+        <v>15747.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1418.0331</v>
+        <v>6531.53</v>
       </c>
       <c r="C5" t="n">
-        <v>2919.51</v>
+        <v>22427.2</v>
       </c>
       <c r="D5" t="n">
-        <v>923.13</v>
+        <v>2630.61</v>
       </c>
       <c r="E5" t="n">
-        <v>20017.31</v>
+        <v>110530.7</v>
       </c>
       <c r="F5" t="n">
-        <v>7236.54</v>
+        <v>28810.13</v>
       </c>
       <c r="G5" t="n">
-        <v>1182.26</v>
+        <v>8231.32</v>
       </c>
       <c r="H5" t="n">
-        <v>2844.45</v>
+        <v>17233.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1737.0555</v>
+        <v>7376.61</v>
       </c>
       <c r="C6" t="n">
-        <v>3957.33</v>
+        <v>24642.19</v>
       </c>
       <c r="D6" t="n">
-        <v>1043.77</v>
+        <v>2843.41</v>
       </c>
       <c r="E6" t="n">
-        <v>24165.68</v>
+        <v>119175.31</v>
       </c>
       <c r="F6" t="n">
-        <v>9017.940000000001</v>
+        <v>30855.36</v>
       </c>
       <c r="G6" t="n">
-        <v>1501.9</v>
+        <v>8907.120000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>3581.97</v>
+        <v>17781.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2094.9104</v>
+        <v>8617.27</v>
       </c>
       <c r="C7" t="n">
-        <v>5343.92</v>
+        <v>27133.87</v>
       </c>
       <c r="D7" t="n">
-        <v>1066.17</v>
+        <v>2560.84</v>
       </c>
       <c r="E7" t="n">
-        <v>28778.54</v>
+        <v>124922.2</v>
       </c>
       <c r="F7" t="n">
-        <v>10792.11</v>
+        <v>31109.47</v>
       </c>
       <c r="G7" t="n">
-        <v>1633.81</v>
+        <v>10542.16</v>
       </c>
       <c r="H7" t="n">
-        <v>4232.46</v>
+        <v>19312.84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2453.7087</v>
+        <v>10088.98</v>
       </c>
       <c r="C8" t="n">
-        <v>7039.6</v>
+        <v>28851.36</v>
       </c>
       <c r="D8" t="n">
-        <v>1141.78</v>
+        <v>2603.75</v>
       </c>
       <c r="E8" t="n">
-        <v>34804.35</v>
+        <v>130360.73</v>
       </c>
       <c r="F8" t="n">
-        <v>12784.81</v>
+        <v>40712.08</v>
       </c>
       <c r="G8" t="n">
-        <v>1885.69</v>
+        <v>10217.23</v>
       </c>
       <c r="H8" t="n">
-        <v>5128.71</v>
+        <v>11501.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3185.58</v>
+        <v>11966.37</v>
       </c>
       <c r="C9" t="n">
-        <v>8779.25</v>
+        <v>32117.29</v>
       </c>
       <c r="D9" t="n">
-        <v>1432.57</v>
+        <v>2997.85</v>
       </c>
       <c r="E9" t="n">
-        <v>45621.97</v>
+        <v>144369.87</v>
       </c>
       <c r="F9" t="n">
-        <v>15470.23</v>
+        <v>56378.18</v>
       </c>
       <c r="G9" t="n">
-        <v>2206.83</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6582.17</v>
-      </c>
+        <v>10225.09</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3722.31</v>
+        <v>13871.97</v>
       </c>
       <c r="C10" t="n">
-        <v>11175.63</v>
+        <v>35323.71</v>
       </c>
       <c r="D10" t="n">
-        <v>1769.95</v>
+        <v>2847.78</v>
       </c>
       <c r="E10" t="n">
-        <v>54223.79</v>
+        <v>156402.86</v>
       </c>
       <c r="F10" t="n">
-        <v>17996.94</v>
+        <v>61530.77</v>
       </c>
       <c r="G10" t="n">
-        <v>2568.27</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7626.39</v>
-      </c>
+        <v>10631.75</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3949.35</v>
+        <v>10388.53</v>
       </c>
       <c r="C11" t="n">
-        <v>11536.84</v>
+        <v>37303.77</v>
       </c>
       <c r="D11" t="n">
-        <v>1483.81</v>
+        <v>2889.13</v>
       </c>
       <c r="E11" t="n">
-        <v>59521.59</v>
+        <v>158000.46</v>
       </c>
       <c r="F11" t="n">
-        <v>18481.22</v>
+        <v>62347.36</v>
       </c>
       <c r="G11" t="n">
-        <v>4761.22</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9013.98</v>
-      </c>
+        <v>12564.44</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4837.27</v>
+        <v>11568.26</v>
       </c>
       <c r="C12" t="n">
-        <v>12843.54</v>
+        <v>36425.81</v>
       </c>
       <c r="D12" t="n">
-        <v>2027.83</v>
+        <v>2564.25</v>
       </c>
       <c r="E12" t="n">
-        <v>73210.78999999999</v>
+        <v>154312.29</v>
       </c>
       <c r="F12" t="n">
-        <v>21093.48</v>
+        <v>56791.24</v>
       </c>
       <c r="G12" t="n">
-        <v>6071.55</v>
-      </c>
-      <c r="H12" t="n">
-        <v>11157.91</v>
-      </c>
+        <v>12028.1</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6054.11</v>
+        <v>13992.68</v>
       </c>
       <c r="C13" t="n">
-        <v>16769.64</v>
+        <v>42042.38</v>
       </c>
       <c r="D13" t="n">
-        <v>2559.12</v>
+        <v>2806.14</v>
       </c>
       <c r="E13" t="n">
-        <v>89738.39</v>
+        <v>172735.67</v>
       </c>
       <c r="F13" t="n">
-        <v>24266.63</v>
+        <v>63519.59</v>
       </c>
       <c r="G13" t="n">
-        <v>6936.21</v>
-      </c>
-      <c r="H13" t="n">
-        <v>13679</v>
-      </c>
+        <v>13880.7</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5820.28</v>
+        <v>14922.81</v>
       </c>
       <c r="C14" t="n">
-        <v>19654.53</v>
+        <v>43690.36</v>
       </c>
       <c r="D14" t="n">
-        <v>2783.93</v>
+        <v>2860.29</v>
       </c>
       <c r="E14" t="n">
-        <v>100614.28</v>
+        <v>166613.96</v>
       </c>
       <c r="F14" t="n">
-        <v>26415.51</v>
+        <v>48716.83</v>
       </c>
       <c r="G14" t="n">
-        <v>7875.58</v>
-      </c>
-      <c r="H14" t="n">
-        <v>15747.64</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6531.53</v>
-      </c>
-      <c r="C15" t="n">
-        <v>22427.2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2630.61</v>
-      </c>
-      <c r="E15" t="n">
-        <v>110530.7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>28810.13</v>
-      </c>
-      <c r="G15" t="n">
-        <v>8231.32</v>
-      </c>
-      <c r="H15" t="n">
-        <v>17233.02</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7376.61</v>
-      </c>
-      <c r="C16" t="n">
-        <v>24642.19</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2843.41</v>
-      </c>
-      <c r="E16" t="n">
-        <v>119175.31</v>
-      </c>
-      <c r="F16" t="n">
-        <v>30855.36</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8907.120000000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>17781.73</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8617.27</v>
-      </c>
-      <c r="C17" t="n">
-        <v>27133.87</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2560.84</v>
-      </c>
-      <c r="E17" t="n">
-        <v>124922.2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>31109.47</v>
-      </c>
-      <c r="G17" t="n">
-        <v>10542.16</v>
-      </c>
-      <c r="H17" t="n">
-        <v>19312.84</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10088.98</v>
-      </c>
-      <c r="C18" t="n">
-        <v>28851.36</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2603.75</v>
-      </c>
-      <c r="E18" t="n">
-        <v>130360.73</v>
-      </c>
-      <c r="F18" t="n">
-        <v>40712.08</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10217.23</v>
-      </c>
-      <c r="H18" t="n">
-        <v>11501.88</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>11966.37</v>
-      </c>
-      <c r="C19" t="n">
-        <v>32117.29</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2997.85</v>
-      </c>
-      <c r="E19" t="n">
-        <v>144369.87</v>
-      </c>
-      <c r="F19" t="n">
-        <v>56378.18</v>
-      </c>
-      <c r="G19" t="n">
-        <v>10225.09</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>13871.97</v>
-      </c>
-      <c r="C20" t="n">
-        <v>35323.71</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2847.78</v>
-      </c>
-      <c r="E20" t="n">
-        <v>156402.86</v>
-      </c>
-      <c r="F20" t="n">
-        <v>61530.77</v>
-      </c>
-      <c r="G20" t="n">
-        <v>10631.75</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>10388.53</v>
-      </c>
-      <c r="C21" t="n">
-        <v>37303.77</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2889.13</v>
-      </c>
-      <c r="E21" t="n">
-        <v>158000.46</v>
-      </c>
-      <c r="F21" t="n">
-        <v>62347.36</v>
-      </c>
-      <c r="G21" t="n">
-        <v>12564.44</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>11568.26</v>
-      </c>
-      <c r="C22" t="n">
-        <v>36425.81</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2564.25</v>
-      </c>
-      <c r="E22" t="n">
-        <v>154312.29</v>
-      </c>
-      <c r="F22" t="n">
-        <v>56791.24</v>
-      </c>
-      <c r="G22" t="n">
-        <v>12028.1</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
+        <v>16698.81</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
